--- a/Analysis/Application_Of_Trademark.xlsx
+++ b/Analysis/Application_Of_Trademark.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C810A14A-1F8A-4987-9554-D74185F954EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8BC93-9702-4063-86B0-07AE2D2D25DD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Request for amendment of application</t>
   </si>
@@ -65,13 +65,195 @@
   </si>
   <si>
     <t>Request for trademark search</t>
+  </si>
+  <si>
+    <t>Mã đơn</t>
+  </si>
+  <si>
+    <t>Phụ lục B - Mẫu số: 01-SĐĐ</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 08-SĐQT</t>
+  </si>
+  <si>
+    <t>Phụ lục D - Mẫu số: 03-SĐHĐ</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 01-SĐVB</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số 05 KN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phụ lục B - Mẫu số: 02-CGĐ </t>
+  </si>
+  <si>
+    <t>Phụ lục D - Mẫu số: 01 HĐCN</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 04-CDHB</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 07-ĐKCĐ</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 03-PBVB</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 06-ĐKQT</t>
+  </si>
+  <si>
+    <t>Phụ lục D - Mẫu số: 02-HĐSD</t>
+  </si>
+  <si>
+    <t>Phụ lục C - Mẫu số: 02-GHVB</t>
+  </si>
+  <si>
+    <t>Phụ lục A - Mẫu số: 04-NH</t>
+  </si>
+  <si>
+    <t>Phụ lục F - Mẫu số: 03-YCTCNH</t>
+  </si>
+  <si>
+    <t>TỜ KHAI 
+YÊU CẦU GIA HẠN/SỬA ĐỔI/CHUYỂN NHƯỢNG/MỞ RỘNG LÃNH THỔ/HẠN CHẾ DANH MỤC/CHẤM DỨT/ HUỶ BỎ ĐĂNG KÝ QUỐC TẾ NHÃN HIỆU</t>
+  </si>
+  <si>
+    <t>TỜ KHAI 
+SỬA ĐỔI ĐƠN ĐĂNG KÝ ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>buoc 3 la thoi diem som nhat, nhung thuc ra viec khieu naico the xay ra bat ky thoi diem nao sau b3</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>buoc 4 la thoi diem som nhat, nhung thuc ra viec sua doi co the xay ra bat ky thoi diem nao sau b4</t>
+  </si>
+  <si>
+    <t>4c1</t>
+  </si>
+  <si>
+    <t>4c2</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>buoc 4 la thoi diem som nhat, nhung thuc ra viec xin cap pho ban co the xay ra bat ky thoi diem nao sau b4</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+ĐĂNG KÝ NHÃN HIỆU</t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+YÊU CẦU ĐĂNG KÝ QUỐC TẾ NHÃN HIỆU 
+CÓ NGUỒN GỐC VIỆT NAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TỜ KHAI
+ĐĂNG KÝ NHÃN HIỆU CHUYỂN ĐỔI </t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+YÊU CẦU GHI NHẬN CHUYỂN GIAO ĐƠN 
+ĐĂNG KÝ ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆ</t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+CHẤM DỨT/HỦY BỎ HIỆU LỰC VĂN BẰNG BẢO HỘ 
+ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+SỬA ĐỔI VĂN BẰNG BẢO HỘ 
+ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TỜ KHAI
+ĐĂNG KÝ HỢP ĐỒNG CHUYỂN QUYỀN 
+SỬ DỤNG ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TỜ KHAI
+ĐĂNG KÝ HỢP ĐỒNG CHUYỂN NHƯỢNG QUYỀN SỞ HỮU CÔNG NGHIỆP </t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+CẤP PHÓ BẢN/CẤP LẠI VĂN BẰNG BẢO HỘ 
+ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t>TỜ KHAI
+GIA HẠN VĂN BẰNG BẢO HỘ 
+ĐỐI TƯỢNG SỞ HỮU CÔNG NGHIỆP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TỜ KHAI
+YÊU CẦU GHI NHẬN VIỆC SỬA ĐỔI/GIA HẠN/CHẤM DỨT HIỆU LỰC HỢP ĐỒNG 
+CHUYỂN QUYỀN SỬ DỤNG ĐỐI TƯỢNG 
+SỞ HỮU CÔNG NGHIỆP </t>
+  </si>
+  <si>
+    <t>YÊU CẦU
+TRA CỨU NHÃN HIỆU</t>
+  </si>
+  <si>
+    <t>TỜ KHAI KHIẾU NẠI</t>
+  </si>
+  <si>
+    <t>Tên đơn tiếng anh</t>
+  </si>
+  <si>
+    <t>Tên đơn tiếng việt</t>
+  </si>
+  <si>
+    <t>Link Data by Application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +261,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,12 +297,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -382,93 +626,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis/Application_Of_Trademark.xlsx
+++ b/Analysis/Application_Of_Trademark.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8BC93-9702-4063-86B0-07AE2D2D25DD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5528EB-544F-451E-8B67-BFC4442C3CAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +632,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +640,7 @@
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -669,7 +672,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -685,7 +688,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -836,7 +839,7 @@
       <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="2"/>
@@ -886,7 +889,7 @@
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2"/>
@@ -902,7 +905,7 @@
       <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="2"/>

--- a/Analysis/Application_Of_Trademark.xlsx
+++ b/Analysis/Application_Of_Trademark.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5528EB-544F-451E-8B67-BFC4442C3CAA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172808F-A896-4B76-8028-4CF0C14CAD38}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,15 +631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="55.28515625" customWidth="1"/>
   </cols>

--- a/Analysis/Application_Of_Trademark.xlsx
+++ b/Analysis/Application_Of_Trademark.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3172808F-A896-4B76-8028-4CF0C14CAD38}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -252,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,17 +627,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="50.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
     <col min="6" max="6" width="55.28515625" customWidth="1"/>
